--- a/data/MAGMA_Thermodynamic_Data_Canup_2015.xlsx
+++ b/data/MAGMA_Thermodynamic_Data_Canup_2015.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\PycharmProjects\MAGMApy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{979FADC5-C511-4237-AB0B-F0B0D84EE0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1D6DF5-BDDE-47AC-937C-3F7E852C6022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="870" windowWidth="17565" windowHeight="18585" activeTab="3" xr2:uid="{A66FC4F3-F169-E14C-B2AF-C9A0F5AF27FB}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21615" windowHeight="16920" activeTab="3" xr2:uid="{A66FC4F3-F169-E14C-B2AF-C9A0F5AF27FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="241">
   <si>
     <t>Label</t>
   </si>
@@ -494,9 +494,6 @@
     <t>KAlSi2O6</t>
   </si>
   <si>
-    <t>KCaAlSi2O7</t>
-  </si>
-  <si>
     <t>K2Si4O9</t>
   </si>
   <si>
@@ -551,9 +548,6 @@
     <t>Na6Si2O7</t>
   </si>
   <si>
-    <t>R47</t>
-  </si>
-  <si>
     <t>Reactants</t>
   </si>
   <si>
@@ -755,9 +749,6 @@
     <t>ZnO_g</t>
   </si>
   <si>
-    <t>1*Zn, 0.5*O2</t>
-  </si>
-  <si>
     <t>ZnO_l</t>
   </si>
   <si>
@@ -768,6 +759,9 @@
   </si>
   <si>
     <t>1*Zn</t>
+  </si>
+  <si>
+    <t>1*Zn_l, 0.5*O2</t>
   </si>
 </sst>
 </file>
@@ -826,10 +820,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1537,19 +1527,19 @@
         <v>55</v>
       </c>
       <c r="P1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q1" t="s">
         <v>56</v>
       </c>
       <c r="R1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S1" t="s">
         <v>57</v>
       </c>
       <c r="T1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U1" t="s">
         <v>58</v>
@@ -2434,11 +2424,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E87784-E8EA-0C48-B8E0-41A25BCC011E}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2864,7 +2854,7 @@
         <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C20">
         <v>-3</v>
@@ -3136,7 +3126,7 @@
         <v>90</v>
       </c>
       <c r="B33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C33">
         <v>-4.157</v>
@@ -3156,7 +3146,7 @@
         <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C34">
         <v>-2.0449999999999999</v>
@@ -3308,137 +3298,111 @@
         <v>151</v>
       </c>
       <c r="C41">
-        <v>4.2983000000000002</v>
+        <v>-1.33</v>
       </c>
       <c r="D41">
-        <v>17037</v>
+        <v>17995</v>
       </c>
       <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="L41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B42" t="s">
-        <v>152</v>
-      </c>
-      <c r="C42">
-        <v>-1.33</v>
-      </c>
-      <c r="D42">
-        <v>17995</v>
-      </c>
-      <c r="E42">
-        <v>4</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B44" t="s">
         <v>153</v>
       </c>
+      <c r="C44">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="D44">
+        <v>1777.9</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B45" t="s">
         <v>154</v>
       </c>
       <c r="C45">
-        <v>0.59599999999999997</v>
+        <v>2.7930000000000001</v>
       </c>
       <c r="D45">
-        <v>1777.9</v>
-      </c>
-      <c r="E45">
+        <v>-5625.5439999999999</v>
+      </c>
+      <c r="J45">
         <v>1</v>
       </c>
       <c r="M45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B46" t="s">
         <v>155</v>
       </c>
       <c r="C46">
-        <v>2.7930000000000001</v>
+        <v>-0.1464</v>
       </c>
       <c r="D46">
-        <v>-5625.5439999999999</v>
+        <v>3044.1203</v>
       </c>
       <c r="J46">
         <v>1</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B47" t="s">
         <v>156</v>
       </c>
       <c r="C47">
-        <v>-0.1464</v>
+        <v>-1.27715</v>
       </c>
       <c r="D47">
-        <v>3044.1203</v>
-      </c>
-      <c r="J47">
+        <v>4727.51</v>
+      </c>
+      <c r="I47">
         <v>1</v>
       </c>
       <c r="M47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>170</v>
-      </c>
-      <c r="B48" t="s">
-        <v>157</v>
-      </c>
-      <c r="C48">
-        <v>-1.27715</v>
-      </c>
-      <c r="D48">
-        <v>4727.51</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="M48">
         <v>1</v>
       </c>
     </row>
@@ -3453,7 +3417,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E38"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3472,12 +3436,12 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -3489,7 +3453,7 @@
         <v>-13282</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3497,7 +3461,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C3">
         <v>-11.7</v>
@@ -3506,7 +3470,7 @@
         <v>38621</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3514,7 +3478,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C4">
         <v>-2.5099999999999998</v>
@@ -3523,7 +3487,7 @@
         <v>-8207</v>
       </c>
       <c r="E4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3531,7 +3495,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C5">
         <v>-1.7170000000000001</v>
@@ -3540,7 +3504,7 @@
         <v>19892.900000000001</v>
       </c>
       <c r="E5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3548,7 +3512,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -3557,7 +3521,7 @@
         <v>-20919</v>
       </c>
       <c r="E6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3574,7 +3538,7 @@
         <v>-3794</v>
       </c>
       <c r="E7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3582,7 +3546,7 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C8">
         <v>-12.56</v>
@@ -3591,7 +3555,7 @@
         <v>46992</v>
       </c>
       <c r="E8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3599,7 +3563,7 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C9">
         <v>-12.06</v>
@@ -3608,7 +3572,7 @@
         <v>44992</v>
       </c>
       <c r="E9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3616,7 +3580,7 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C10">
         <v>-6.35</v>
@@ -3625,7 +3589,7 @@
         <v>19704</v>
       </c>
       <c r="E10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3633,7 +3597,7 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C11">
         <v>-2.96</v>
@@ -3642,7 +3606,7 @@
         <v>9753</v>
       </c>
       <c r="E11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3650,7 +3614,7 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C12">
         <f>-22.6722053113</f>
@@ -3661,7 +3625,7 @@
         <v>75643.0936141329</v>
       </c>
       <c r="E12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3669,7 +3633,7 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C13">
         <f>-31.9907301154</f>
@@ -3680,7 +3644,7 @@
         <v>111052.62061396299</v>
       </c>
       <c r="E13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3688,7 +3652,7 @@
         <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C14">
         <v>-11.88</v>
@@ -3697,7 +3661,7 @@
         <v>49586</v>
       </c>
       <c r="E14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3705,7 +3669,7 @@
         <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C15">
         <v>-1.61</v>
@@ -3714,7 +3678,7 @@
         <v>6128</v>
       </c>
       <c r="E15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3722,7 +3686,7 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C16">
         <v>-35.83</v>
@@ -3731,7 +3695,7 @@
         <v>153255</v>
       </c>
       <c r="E16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3739,7 +3703,7 @@
         <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C17">
         <v>-5.7</v>
@@ -3748,7 +3712,7 @@
         <v>15862</v>
       </c>
       <c r="E17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3756,7 +3720,7 @@
         <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C18">
         <v>-2.66</v>
@@ -3765,7 +3729,7 @@
         <v>13719</v>
       </c>
       <c r="E18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3773,7 +3737,7 @@
         <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C19">
         <v>-9.36</v>
@@ -3782,7 +3746,7 @@
         <v>41956</v>
       </c>
       <c r="E19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3790,7 +3754,7 @@
         <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C20">
         <v>-5.79</v>
@@ -3799,7 +3763,7 @@
         <v>15867.5</v>
       </c>
       <c r="E20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3807,7 +3771,7 @@
         <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C21">
         <v>-12.93</v>
@@ -3816,7 +3780,7 @@
         <v>54745</v>
       </c>
       <c r="E21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3824,7 +3788,7 @@
         <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C22">
         <v>-6.46</v>
@@ -3833,7 +3797,7 @@
         <v>23025</v>
       </c>
       <c r="E22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3841,7 +3805,7 @@
         <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C23">
         <v>4.3099999999999996</v>
@@ -3850,7 +3814,7 @@
         <v>-2101</v>
       </c>
       <c r="E23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3858,7 +3822,7 @@
         <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C24">
         <v>-21.07</v>
@@ -3867,7 +3831,7 @@
         <v>95362</v>
       </c>
       <c r="E24" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3875,7 +3839,7 @@
         <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C25">
         <v>-0.41</v>
@@ -3884,7 +3848,7 @@
         <v>17926</v>
       </c>
       <c r="E25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3892,7 +3856,7 @@
         <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C26">
         <v>-15.56</v>
@@ -3901,7 +3865,7 @@
         <v>40286</v>
       </c>
       <c r="E26" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3909,7 +3873,7 @@
         <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C27">
         <v>-4.8391500000000001</v>
@@ -3918,7 +3882,7 @@
         <v>13305.8712</v>
       </c>
       <c r="E27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3926,7 +3890,7 @@
         <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C28">
         <v>-4.3099999999999996</v>
@@ -3935,7 +3899,7 @@
         <v>4281</v>
       </c>
       <c r="E28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3943,7 +3907,7 @@
         <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C29">
         <v>-10.539709999999999</v>
@@ -3952,7 +3916,7 @@
         <v>25351.16747</v>
       </c>
       <c r="E29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3960,7 +3924,7 @@
         <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C30">
         <v>2.8</v>
@@ -3969,7 +3933,7 @@
         <v>-27851</v>
       </c>
       <c r="E30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3977,7 +3941,7 @@
         <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C31">
         <v>-15.21</v>
@@ -3986,7 +3950,7 @@
         <v>36404</v>
       </c>
       <c r="E31" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3994,7 +3958,7 @@
         <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C32">
         <v>-4.5888</v>
@@ -4003,7 +3967,7 @@
         <v>14548.7</v>
       </c>
       <c r="E32" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -4011,7 +3975,7 @@
         <v>89</v>
       </c>
       <c r="B33" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C33">
         <v>-10.741099999999999</v>
@@ -4020,7 +3984,7 @@
         <v>26600.3</v>
       </c>
       <c r="E33" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -4028,7 +3992,7 @@
         <v>90</v>
       </c>
       <c r="B34" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C34">
         <v>-3.94</v>
@@ -4037,7 +4001,7 @@
         <v>2852</v>
       </c>
       <c r="E34" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -4045,7 +4009,7 @@
         <v>92</v>
       </c>
       <c r="B35" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C35">
         <v>2.76</v>
@@ -4054,7 +4018,7 @@
         <v>-23760</v>
       </c>
       <c r="E35" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -4062,7 +4026,7 @@
         <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C36">
         <v>3.1945999999999999</v>
@@ -4071,7 +4035,7 @@
         <v>-10967.931</v>
       </c>
       <c r="E36" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -4079,7 +4043,7 @@
         <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C37">
         <v>-12.02455</v>
@@ -4088,7 +4052,7 @@
         <v>33554.101999999999</v>
       </c>
       <c r="E37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -4096,7 +4060,7 @@
         <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C38">
         <v>-5.1891999999999996</v>
@@ -4105,7 +4069,7 @@
         <v>6124.14</v>
       </c>
       <c r="E38" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
